--- a/Dallas Crime/Dallas_Crime_Data_Definition.xlsx
+++ b/Dallas Crime/Dallas_Crime_Data_Definition.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4e59d339df73a92/MyWork/SMU/MSDS7331/MSDS7331-Data-Mining/Dallas Crime/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yubin\OneDrive\MyWork\SMU\MSDS7331\MSDS7331-Data-Mining\Dallas Crime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B1DDA59-37E7-44C7-BC5E-4E827AF178F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{3B1DDA59-37E7-44C7-BC5E-4E827AF178F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{860EB29B-C33A-4685-9A22-4F0B8082EF9B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{257E40C7-5E52-43CB-94B9-6D8871EE68F9}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FullDataSet!$A$1:$G$101</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Reduced Data Set'!$A$1:$D$60</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="356">
   <si>
     <t>Target Area Action Grids</t>
   </si>
@@ -648,9 +649,6 @@
     <t>Day2 of the Week</t>
   </si>
   <si>
-    <t>Day of the indent based on the Date of Occurrence (Date1)</t>
-  </si>
-  <si>
     <t>Time2 of Occurrence</t>
   </si>
   <si>
@@ -1078,6 +1076,42 @@
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>Keep</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>neet to change data type, How to handle U (51611)?</t>
+  </si>
+  <si>
+    <t>change data type</t>
+  </si>
+  <si>
+    <t>potential Response Variable?</t>
+  </si>
+  <si>
+    <t>Offense Date/Time</t>
+  </si>
+  <si>
+    <t>Geographic area comprised of beats where incident occurred ( the city broken down for patrol and statistical purposes)</t>
+  </si>
+  <si>
+    <t>CFS Number (Law Call Number, identity of each 911 calls or police-initiated events)</t>
+  </si>
+  <si>
+    <t>NIBRS Crime (National Incident-Based Reporting System)</t>
+  </si>
+  <si>
+    <t>UCR Offense Name (Uniform Crime Reporting)</t>
+  </si>
+  <si>
+    <t>Day of the indent based on the Date of Occurrence (Date2)</t>
+  </si>
+  <si>
+    <t>Still not clear how to deal with officer information.</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1195,11 +1229,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1257,6 +1328,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1670,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23266A-FDE5-42AA-B610-04E36CCB5C1F}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,13 +1791,14 @@
     <col min="3" max="3" width="85.28515625" style="18" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="13" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="17.28515625" style="10"/>
+    <col min="6" max="6" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="17.28515625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>169</v>
@@ -1701,13 +1810,16 @@
         <v>171</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="11" t="s">
         <v>172</v>
@@ -1719,11 +1831,14 @@
         <v>173</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="11" t="s">
         <v>174</v>
@@ -1735,11 +1850,14 @@
         <v>176</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="11" t="s">
         <v>10</v>
@@ -1751,11 +1869,12 @@
         <v>173</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="11" t="s">
         <v>11</v>
@@ -1767,11 +1886,16 @@
         <v>173</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>12</v>
@@ -1783,11 +1907,16 @@
         <v>173</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="11" t="s">
         <v>13</v>
@@ -1799,11 +1928,16 @@
         <v>173</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="11" t="s">
         <v>177</v>
@@ -1815,11 +1949,16 @@
         <v>173</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="11" t="s">
         <v>19</v>
@@ -1831,11 +1970,16 @@
         <v>173</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>26</v>
@@ -1847,11 +1991,12 @@
         <v>173</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="11" t="s">
         <v>179</v>
@@ -1863,11 +2008,12 @@
         <v>173</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="11" t="s">
         <v>35</v>
@@ -1879,27 +2025,33 @@
         <v>176</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>129</v>
+        <v>350</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>176</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="11" t="s">
         <v>39</v>
@@ -1911,11 +2063,16 @@
         <v>173</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="11" t="s">
         <v>41</v>
@@ -1927,11 +2084,14 @@
         <v>176</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="11" t="s">
         <v>43</v>
@@ -1943,11 +2103,14 @@
         <v>173</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="11" t="s">
         <v>0</v>
@@ -1959,11 +2122,16 @@
         <v>173</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="11" t="s">
         <v>46</v>
@@ -1975,13 +2143,18 @@
         <v>173</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>181</v>
@@ -1993,11 +2166,12 @@
         <v>183</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="11" t="s">
         <v>184</v>
@@ -2009,11 +2183,14 @@
         <v>176</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="11" t="s">
         <v>186</v>
@@ -2025,11 +2202,12 @@
         <v>173</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="11" t="s">
         <v>188</v>
@@ -2041,11 +2219,12 @@
         <v>173</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="11" t="s">
         <v>190</v>
@@ -2057,11 +2236,14 @@
         <v>173</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="11" t="s">
         <v>192</v>
@@ -2073,13 +2255,14 @@
         <v>176</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>194</v>
@@ -2091,11 +2274,14 @@
         <v>183</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="11" t="s">
         <v>196</v>
@@ -2107,11 +2293,12 @@
         <v>176</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="11" t="s">
         <v>198</v>
@@ -2123,59 +2310,65 @@
         <v>173</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="11" t="s">
         <v>200</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>201</v>
+        <v>354</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>203</v>
-      </c>
       <c r="D29" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>205</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>176</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="11" t="s">
         <v>53</v>
@@ -2187,11 +2380,12 @@
         <v>183</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="11" t="s">
         <v>55</v>
@@ -2203,60 +2397,66 @@
         <v>183</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+        <v>268</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>349</v>
+      </c>
       <c r="B33" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>206</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>207</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>176</v>
       </c>
       <c r="E33" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="34"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" s="16" t="s">
+      <c r="F34" s="29"/>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>211</v>
-      </c>
       <c r="D35" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
+        <v>268</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="35"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
       <c r="B36" s="11" t="s">
         <v>57</v>
       </c>
@@ -2267,14 +2467,15 @@
         <v>173</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
+        <v>266</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="35"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
       <c r="B37" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>152</v>
@@ -2283,27 +2484,29 @@
         <v>173</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="F37" s="30"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>213</v>
+        <v>351</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="11" t="s">
         <v>60</v>
@@ -2315,11 +2518,14 @@
         <v>183</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="11" t="s">
         <v>62</v>
@@ -2331,11 +2537,14 @@
         <v>183</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="11" t="s">
         <v>63</v>
@@ -2347,11 +2556,14 @@
         <v>183</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="11" t="s">
         <v>65</v>
@@ -2363,27 +2575,31 @@
         <v>183</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="F42" s="20"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>215</v>
-      </c>
       <c r="D43" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="F43" s="20"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="11" t="s">
         <v>67</v>
@@ -2395,43 +2611,54 @@
         <v>173</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="F44" s="20"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="F45" s="20"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="F46" s="20"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="11" t="s">
         <v>158</v>
@@ -2443,27 +2670,35 @@
         <v>173</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="F47" s="20"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="F48" s="20"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="11" t="s">
         <v>159</v>
@@ -2475,11 +2710,14 @@
         <v>173</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="F49" s="20"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="11" t="s">
         <v>160</v>
@@ -2491,11 +2729,14 @@
         <v>176</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="F50" s="20"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="11" t="s">
         <v>161</v>
@@ -2507,11 +2748,14 @@
         <v>176</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="F51" s="20"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="11" t="s">
         <v>162</v>
@@ -2523,27 +2767,29 @@
         <v>173</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="F52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="F53" s="20"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="F53" s="23"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="11" t="s">
         <v>163</v>
@@ -2555,11 +2801,14 @@
         <v>176</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="F54" s="20"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="11" t="s">
         <v>164</v>
@@ -2571,27 +2820,33 @@
         <v>173</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="F55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="F56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="11" t="s">
         <v>165</v>
@@ -2603,11 +2858,12 @@
         <v>173</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="F57" s="20"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="F57" s="23"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="11" t="s">
         <v>166</v>
@@ -2619,155 +2875,167 @@
         <v>173</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="F58" s="20"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="F58" s="23"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="F59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="F60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="F61" s="20"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C62" s="16" t="s">
-        <v>225</v>
-      </c>
       <c r="D62" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="F62" s="20"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>227</v>
-      </c>
       <c r="D63" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="F63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="F63" s="23"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="F64" s="20"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="F65" s="20"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="F66" s="20"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C67" s="16" t="s">
-        <v>232</v>
-      </c>
       <c r="D67" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="F67" s="20"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="11" t="s">
         <v>84</v>
@@ -2779,11 +3047,12 @@
         <v>173</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="F68" s="20"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="F68" s="23"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="11" t="s">
         <v>86</v>
@@ -2795,11 +3064,12 @@
         <v>173</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="F69" s="20"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="F69" s="23"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
       <c r="B70" s="11" t="s">
         <v>88</v>
@@ -2811,43 +3081,50 @@
         <v>173</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="F70" s="20"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
       <c r="B71" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C71" s="16" t="s">
-        <v>234</v>
-      </c>
       <c r="D71" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="F71" s="20"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="F72" s="20"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="F72" s="23"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="11" t="s">
         <v>92</v>
@@ -2859,11 +3136,12 @@
         <v>173</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="F73" s="20"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="F73" s="23"/>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="11" t="s">
         <v>99</v>
@@ -2875,27 +3153,31 @@
         <v>173</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="F74" s="20"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="F74" s="23"/>
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="D75" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D75" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="E75" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="F75" s="20"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G75" s="20"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
       <c r="B76" s="11" t="s">
         <v>101</v>
@@ -2907,43 +3189,50 @@
         <v>173</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="F76" s="20"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="F77" s="20"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="F77" s="23"/>
+      <c r="G77" s="20"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="F78" s="20"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G78" s="20"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="24"/>
       <c r="B79" s="11" t="s">
         <v>103</v>
@@ -2955,30 +3244,34 @@
         <v>173</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="F79" s="20"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G79" s="20"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C80" s="16" t="s">
-        <v>242</v>
-      </c>
       <c r="D80" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="F80" s="20"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="F80" s="23"/>
+      <c r="G80" s="20"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="24"/>
       <c r="B81" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>137</v>
@@ -2987,11 +3280,14 @@
         <v>173</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="F81" s="20"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G81" s="20"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="24"/>
       <c r="B82" s="11" t="s">
         <v>94</v>
@@ -3003,14 +3299,17 @@
         <v>173</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F82" s="20"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G82" s="20"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>131</v>
@@ -3021,9 +3320,10 @@
       <c r="E83" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="20"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="23"/>
+      <c r="G83" s="20"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="24"/>
       <c r="B84" s="11" t="s">
         <v>97</v>
@@ -3035,171 +3335,182 @@
         <v>173</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F84" s="20"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="F84" s="23"/>
+      <c r="G84" s="20"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
       <c r="B85" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="F85" s="20"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="F85" s="23"/>
+      <c r="G85" s="20"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
       <c r="B86" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C86" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C86" s="16" t="s">
-        <v>246</v>
-      </c>
       <c r="D86" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="F86" s="20"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="F86" s="23"/>
+      <c r="G86" s="20"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="24"/>
       <c r="B87" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>176</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="F87" s="20"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="F87" s="23"/>
+      <c r="G87" s="20"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="24"/>
       <c r="B88" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C88" s="16" t="s">
-        <v>249</v>
-      </c>
       <c r="D88" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="F88" s="20"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="F88" s="23"/>
+      <c r="G88" s="20"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>250</v>
+        <v>352</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="F89" s="20"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="F89" s="23"/>
+      <c r="G89" s="20"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="24"/>
       <c r="B90" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="F90" s="20"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="F90" s="23"/>
+      <c r="G90" s="20"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="24"/>
       <c r="B91" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="F91" s="20"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="F91" s="23"/>
+      <c r="G91" s="20"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="24"/>
       <c r="B92" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="F92" s="20"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="F92" s="23"/>
+      <c r="G92" s="20"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="24"/>
       <c r="B93" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="F93" s="20"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="F93" s="23"/>
+      <c r="G93" s="20"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="24"/>
       <c r="B94" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="F94" s="20"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="F94" s="23"/>
+      <c r="G94" s="20"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="24"/>
       <c r="B95" s="11" t="s">
         <v>106</v>
@@ -3211,112 +3522,134 @@
         <v>183</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F95" s="20"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="F95" s="23"/>
+      <c r="G95" s="20"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="24"/>
       <c r="B96" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>176</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="F96" s="20"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G96" s="20"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="24"/>
       <c r="B97" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>176</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="F97" s="20"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G97" s="20"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="24"/>
       <c r="B98" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>176</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="F98" s="20"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G98" s="20"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="24"/>
       <c r="B99" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="F99" s="20"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G99" s="20"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="24"/>
       <c r="B100" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C100" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C100" s="16" t="s">
-        <v>261</v>
-      </c>
       <c r="D100" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="F100" s="20"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G100" s="20"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="24"/>
       <c r="B101" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D101" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C101" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>263</v>
-      </c>
       <c r="E101" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="F101" s="21"/>
+        <v>342</v>
+      </c>
+      <c r="F101" s="23"/>
+      <c r="G101" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <autoFilter ref="A1:G101" xr:uid="{BE5FE986-2386-41CA-B934-CA2FE1CDA302}"/>
+  <mergeCells count="5">
+    <mergeCell ref="G33:G37"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A30"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="A33:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3324,8 +3657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA8F9FB-2155-4ACD-8ADD-6A4CCB31439E}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dallas Crime/Dallas_Crime_Data_Definition.xlsx
+++ b/Dallas Crime/Dallas_Crime_Data_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yubin\OneDrive\MyWork\SMU\MSDS7331\MSDS7331-Data-Mining\Dallas Crime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{3B1DDA59-37E7-44C7-BC5E-4E827AF178F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{860EB29B-C33A-4685-9A22-4F0B8082EF9B}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{3B1DDA59-37E7-44C7-BC5E-4E827AF178F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{3203D2B3-8F65-4234-B75D-C2616EBDD0F2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{257E40C7-5E52-43CB-94B9-6D8871EE68F9}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="357">
   <si>
     <t>Target Area Action Grids</t>
   </si>
@@ -1084,9 +1084,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>neet to change data type, How to handle U (51611)?</t>
-  </si>
-  <si>
     <t>change data type</t>
   </si>
   <si>
@@ -1112,6 +1109,12 @@
   </si>
   <si>
     <t>Still not clear how to deal with officer information.</t>
+  </si>
+  <si>
+    <t>Number of the offense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neet to change data type, How to handle U (51611), put missing value. </t>
   </si>
 </sst>
 </file>
@@ -1326,13 +1329,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1350,21 +1368,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1778,10 +1781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23266A-FDE5-42AA-B610-04E36CCB5C1F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="11" t="s">
         <v>172</v>
@@ -1833,12 +1837,10 @@
       <c r="E2" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>345</v>
-      </c>
+      <c r="F2" s="23"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="11" t="s">
         <v>174</v>
@@ -1852,9 +1854,7 @@
       <c r="E3" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>345</v>
-      </c>
+      <c r="F3" s="23"/>
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1871,8 +1871,12 @@
       <c r="E4" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
@@ -1892,10 +1896,10 @@
         <v>345</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>12</v>
@@ -1909,12 +1913,8 @@
       <c r="E6" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>347</v>
-      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
@@ -1934,7 +1934,7 @@
         <v>345</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1955,10 +1955,10 @@
         <v>345</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="11" t="s">
         <v>19</v>
@@ -1972,14 +1972,10 @@
       <c r="E9" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="26"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>26</v>
@@ -1996,7 +1992,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="11" t="s">
         <v>179</v>
@@ -2038,7 +2034,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>176</v>
@@ -2068,8 +2064,8 @@
       <c r="F14" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>347</v>
+      <c r="G14" s="25" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,7 +2106,7 @@
       </c>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="11" t="s">
         <v>0</v>
@@ -2124,14 +2120,12 @@
       <c r="E17" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>345</v>
-      </c>
+      <c r="F17" s="23"/>
       <c r="G17" s="20" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="11" t="s">
         <v>46</v>
@@ -2145,15 +2139,13 @@
       <c r="E18" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>348</v>
+      <c r="F18" s="23"/>
+      <c r="G18" s="25" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="34" t="s">
         <v>264</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -2168,11 +2160,13 @@
       <c r="E19" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="F19" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
       <c r="B20" s="11" t="s">
         <v>184</v>
       </c>
@@ -2185,13 +2179,11 @@
       <c r="E20" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="F20" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
       <c r="B21" s="11" t="s">
         <v>186</v>
       </c>
@@ -2204,11 +2196,11 @@
       <c r="E21" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="11" t="s">
         <v>188</v>
       </c>
@@ -2221,11 +2213,13 @@
       <c r="E22" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="40"/>
+      <c r="F22" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="11" t="s">
         <v>190</v>
       </c>
@@ -2238,13 +2232,13 @@
       <c r="E23" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
       <c r="B24" s="11" t="s">
         <v>192</v>
       </c>
@@ -2257,11 +2251,11 @@
       <c r="E24" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="40"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="34" t="s">
         <v>265</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -2276,13 +2270,13 @@
       <c r="E25" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
       <c r="B26" s="11" t="s">
         <v>196</v>
       </c>
@@ -2295,11 +2289,11 @@
       <c r="E26" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
       <c r="B27" s="11" t="s">
         <v>198</v>
       </c>
@@ -2312,16 +2306,16 @@
       <c r="E27" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="40"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="11" t="s">
         <v>200</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>173</v>
@@ -2329,11 +2323,13 @@
       <c r="E28" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="40"/>
+      <c r="F28" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="11" t="s">
         <v>201</v>
       </c>
@@ -2346,13 +2342,13 @@
       <c r="E29" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
       <c r="B30" s="11" t="s">
         <v>203</v>
       </c>
@@ -2365,10 +2361,10 @@
       <c r="E30" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="11" t="s">
         <v>53</v>
@@ -2385,7 +2381,7 @@
       <c r="F31" s="23"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="11" t="s">
         <v>55</v>
@@ -2402,9 +2398,9 @@
       <c r="F32" s="23"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>349</v>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>348</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>205</v>
@@ -2418,11 +2414,11 @@
       <c r="E33" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="34"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
       <c r="B34" s="11" t="s">
         <v>207</v>
       </c>
@@ -2435,11 +2431,11 @@
       <c r="E34" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="32"/>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
       <c r="B35" s="11" t="s">
         <v>209</v>
       </c>
@@ -2452,11 +2448,11 @@
       <c r="E35" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
       <c r="B36" s="11" t="s">
         <v>57</v>
       </c>
@@ -2469,11 +2465,11 @@
       <c r="E36" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="32"/>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>211</v>
       </c>
@@ -2486,16 +2482,16 @@
       <c r="E37" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="37"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="11" t="s">
         <v>212</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>173</v>
@@ -2582,7 +2578,7 @@
       </c>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="11" t="s">
         <v>213</v>
@@ -2616,8 +2612,8 @@
       <c r="F44" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="G44" s="26" t="s">
-        <v>347</v>
+      <c r="G44" s="25" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2638,10 +2634,10 @@
         <v>345</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="11" t="s">
         <v>216</v>
@@ -2675,8 +2671,8 @@
       <c r="F47" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="G47" s="26" t="s">
-        <v>347</v>
+      <c r="G47" s="25" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2755,7 +2751,7 @@
       </c>
       <c r="G51" s="20"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="11" t="s">
         <v>162</v>
@@ -2772,7 +2768,7 @@
       <c r="F52" s="23"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="11" t="s">
         <v>218</v>
@@ -2846,7 +2842,7 @@
       </c>
       <c r="G56" s="20"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="11" t="s">
         <v>165</v>
@@ -2863,7 +2859,7 @@
       <c r="F57" s="23"/>
       <c r="G57" s="20"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="11" t="s">
         <v>166</v>
@@ -2880,7 +2876,7 @@
       <c r="F58" s="23"/>
       <c r="G58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="11" t="s">
         <v>220</v>
@@ -2897,7 +2893,7 @@
       <c r="F59" s="23"/>
       <c r="G59" s="20"/>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="11" t="s">
         <v>221</v>
@@ -2913,10 +2909,10 @@
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="11" t="s">
         <v>222</v>
@@ -2933,7 +2929,7 @@
       <c r="F61" s="23"/>
       <c r="G61" s="20"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="11" t="s">
         <v>223</v>
@@ -2950,7 +2946,7 @@
       <c r="F62" s="23"/>
       <c r="G62" s="20"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="11" t="s">
         <v>225</v>
@@ -2967,7 +2963,7 @@
       <c r="F63" s="23"/>
       <c r="G63" s="20"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="11" t="s">
         <v>227</v>
@@ -2984,7 +2980,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="20"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="11" t="s">
         <v>228</v>
@@ -3001,7 +2997,7 @@
       <c r="F65" s="23"/>
       <c r="G65" s="20"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="11" t="s">
         <v>229</v>
@@ -3018,7 +3014,7 @@
       <c r="F66" s="23"/>
       <c r="G66" s="20"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="11" t="s">
         <v>230</v>
@@ -3035,7 +3031,7 @@
       <c r="F67" s="23"/>
       <c r="G67" s="20"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="11" t="s">
         <v>84</v>
@@ -3052,7 +3048,7 @@
       <c r="F68" s="23"/>
       <c r="G68" s="20"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="11" t="s">
         <v>86</v>
@@ -3107,7 +3103,7 @@
       </c>
       <c r="G71" s="20"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="11" t="s">
         <v>90</v>
@@ -3124,7 +3120,7 @@
       <c r="F72" s="23"/>
       <c r="G72" s="20"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="11" t="s">
         <v>92</v>
@@ -3141,7 +3137,7 @@
       <c r="F73" s="23"/>
       <c r="G73" s="20"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="11" t="s">
         <v>99</v>
@@ -3196,7 +3192,7 @@
       </c>
       <c r="G76" s="20"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="11" t="s">
         <v>238</v>
@@ -3251,7 +3247,7 @@
       </c>
       <c r="G79" s="20"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="11" t="s">
         <v>240</v>
@@ -3306,7 +3302,7 @@
       </c>
       <c r="G82" s="20"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="11" t="s">
         <v>243</v>
@@ -3323,7 +3319,7 @@
       <c r="F83" s="23"/>
       <c r="G83" s="20"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="24"/>
       <c r="B84" s="11" t="s">
         <v>97</v>
@@ -3340,13 +3336,13 @@
       <c r="F84" s="23"/>
       <c r="G84" s="20"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
       <c r="B85" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>173</v>
@@ -3357,7 +3353,7 @@
       <c r="F85" s="23"/>
       <c r="G85" s="20"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
       <c r="B86" s="11" t="s">
         <v>244</v>
@@ -3388,10 +3384,12 @@
       <c r="E87" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="F87" s="23"/>
+      <c r="F87" s="23" t="s">
+        <v>345</v>
+      </c>
       <c r="G87" s="20"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="24"/>
       <c r="B88" s="11" t="s">
         <v>247</v>
@@ -3408,13 +3406,13 @@
       <c r="F88" s="23"/>
       <c r="G88" s="20"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>173</v>
@@ -3425,7 +3423,7 @@
       <c r="F89" s="23"/>
       <c r="G89" s="20"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="24"/>
       <c r="B90" s="11" t="s">
         <v>250</v>
@@ -3442,7 +3440,7 @@
       <c r="F90" s="23"/>
       <c r="G90" s="20"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="24"/>
       <c r="B91" s="11" t="s">
         <v>251</v>
@@ -3459,7 +3457,7 @@
       <c r="F91" s="23"/>
       <c r="G91" s="20"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24"/>
       <c r="B92" s="11" t="s">
         <v>252</v>
@@ -3476,7 +3474,7 @@
       <c r="F92" s="23"/>
       <c r="G92" s="20"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="24"/>
       <c r="B93" s="11" t="s">
         <v>253</v>
@@ -3493,7 +3491,7 @@
       <c r="F93" s="23"/>
       <c r="G93" s="20"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="24"/>
       <c r="B94" s="11" t="s">
         <v>254</v>
@@ -3510,7 +3508,7 @@
       <c r="F94" s="23"/>
       <c r="G94" s="20"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="24"/>
       <c r="B95" s="11" t="s">
         <v>106</v>
@@ -3603,7 +3601,7 @@
       </c>
       <c r="G99" s="20"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="24"/>
       <c r="B100" s="11" t="s">
         <v>259</v>
@@ -3617,12 +3615,10 @@
       <c r="E100" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="F100" s="23" t="s">
-        <v>345</v>
-      </c>
+      <c r="F100" s="23"/>
       <c r="G100" s="20"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24"/>
       <c r="B101" s="12" t="s">
         <v>261</v>
@@ -3640,7 +3636,13 @@
       <c r="G101" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G101" xr:uid="{BE5FE986-2386-41CA-B934-CA2FE1CDA302}"/>
+  <autoFilter ref="A1:G101" xr:uid="{BE5FE986-2386-41CA-B934-CA2FE1CDA302}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="G33:G37"/>
     <mergeCell ref="A19:A24"/>

--- a/Dallas Crime/Dallas_Crime_Data_Definition.xlsx
+++ b/Dallas Crime/Dallas_Crime_Data_Definition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yubin\OneDrive\MyWork\SMU\MSDS7331\MSDS7331-Data-Mining\Dallas Crime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{3B1DDA59-37E7-44C7-BC5E-4E827AF178F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{3203D2B3-8F65-4234-B75D-C2616EBDD0F2}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="8_{3B1DDA59-37E7-44C7-BC5E-4E827AF178F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{11BCEC2A-7DEB-4D56-9E1C-61E3065960D8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{257E40C7-5E52-43CB-94B9-6D8871EE68F9}"/>
   </bookViews>
@@ -1781,11 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23266A-FDE5-42AA-B610-04E36CCB5C1F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,7 +1822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="11" t="s">
         <v>172</v>
@@ -1840,7 +1839,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="11" t="s">
         <v>174</v>
@@ -1899,7 +1898,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>12</v>
@@ -1958,7 +1957,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="11" t="s">
         <v>19</v>
@@ -1975,7 +1974,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>26</v>
@@ -1992,7 +1991,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="11" t="s">
         <v>179</v>
@@ -2106,7 +2105,7 @@
       </c>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="11" t="s">
         <v>0</v>
@@ -2125,7 +2124,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="11" t="s">
         <v>46</v>
@@ -2165,7 +2164,7 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="11" t="s">
         <v>184</v>
@@ -2182,7 +2181,7 @@
       <c r="F20" s="26"/>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="11" t="s">
         <v>186</v>
@@ -2237,7 +2236,7 @@
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="B24" s="11" t="s">
         <v>192</v>
@@ -2275,7 +2274,7 @@
       </c>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="11" t="s">
         <v>196</v>
@@ -2292,7 +2291,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="11" t="s">
         <v>198</v>
@@ -2347,7 +2346,7 @@
       </c>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
       <c r="B30" s="11" t="s">
         <v>203</v>
@@ -2364,7 +2363,7 @@
       <c r="F30" s="29"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="11" t="s">
         <v>53</v>
@@ -2381,7 +2380,7 @@
       <c r="F31" s="23"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="11" t="s">
         <v>55</v>
@@ -2398,7 +2397,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>348</v>
       </c>
@@ -2417,7 +2416,7 @@
       <c r="F33" s="35"/>
       <c r="G33" s="31"/>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="11" t="s">
         <v>207</v>
@@ -2434,7 +2433,7 @@
       <c r="F34" s="36"/>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="11" t="s">
         <v>209</v>
@@ -2451,7 +2450,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="32"/>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="11" t="s">
         <v>57</v>
@@ -2468,7 +2467,7 @@
       <c r="F36" s="36"/>
       <c r="G36" s="32"/>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>211</v>
@@ -2485,7 +2484,7 @@
       <c r="F37" s="37"/>
       <c r="G37" s="33"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="11" t="s">
         <v>212</v>
@@ -2578,7 +2577,7 @@
       </c>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="11" t="s">
         <v>213</v>
@@ -2637,7 +2636,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="11" t="s">
         <v>216</v>
@@ -2751,7 +2750,7 @@
       </c>
       <c r="G51" s="20"/>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="11" t="s">
         <v>162</v>
@@ -2768,7 +2767,7 @@
       <c r="F52" s="23"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="11" t="s">
         <v>218</v>
@@ -2842,7 +2841,7 @@
       </c>
       <c r="G56" s="20"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="11" t="s">
         <v>165</v>
@@ -2859,7 +2858,7 @@
       <c r="F57" s="23"/>
       <c r="G57" s="20"/>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="11" t="s">
         <v>166</v>
@@ -2876,7 +2875,7 @@
       <c r="F58" s="23"/>
       <c r="G58" s="20"/>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="11" t="s">
         <v>220</v>
@@ -2893,7 +2892,7 @@
       <c r="F59" s="23"/>
       <c r="G59" s="20"/>
     </row>
-    <row r="60" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="11" t="s">
         <v>221</v>
@@ -2912,7 +2911,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="11" t="s">
         <v>222</v>
@@ -2929,7 +2928,7 @@
       <c r="F61" s="23"/>
       <c r="G61" s="20"/>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="11" t="s">
         <v>223</v>
@@ -2946,7 +2945,7 @@
       <c r="F62" s="23"/>
       <c r="G62" s="20"/>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="11" t="s">
         <v>225</v>
@@ -2963,7 +2962,7 @@
       <c r="F63" s="23"/>
       <c r="G63" s="20"/>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="11" t="s">
         <v>227</v>
@@ -2980,7 +2979,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="20"/>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="11" t="s">
         <v>228</v>
@@ -2997,7 +2996,7 @@
       <c r="F65" s="23"/>
       <c r="G65" s="20"/>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="11" t="s">
         <v>229</v>
@@ -3014,7 +3013,7 @@
       <c r="F66" s="23"/>
       <c r="G66" s="20"/>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="11" t="s">
         <v>230</v>
@@ -3031,7 +3030,7 @@
       <c r="F67" s="23"/>
       <c r="G67" s="20"/>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="11" t="s">
         <v>84</v>
@@ -3048,7 +3047,7 @@
       <c r="F68" s="23"/>
       <c r="G68" s="20"/>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="11" t="s">
         <v>86</v>
@@ -3103,7 +3102,7 @@
       </c>
       <c r="G71" s="20"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="11" t="s">
         <v>90</v>
@@ -3120,7 +3119,7 @@
       <c r="F72" s="23"/>
       <c r="G72" s="20"/>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="11" t="s">
         <v>92</v>
@@ -3137,7 +3136,7 @@
       <c r="F73" s="23"/>
       <c r="G73" s="20"/>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="11" t="s">
         <v>99</v>
@@ -3192,7 +3191,7 @@
       </c>
       <c r="G76" s="20"/>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="11" t="s">
         <v>238</v>
@@ -3247,7 +3246,7 @@
       </c>
       <c r="G79" s="20"/>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="11" t="s">
         <v>240</v>
@@ -3302,7 +3301,7 @@
       </c>
       <c r="G82" s="20"/>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="11" t="s">
         <v>243</v>
@@ -3319,7 +3318,7 @@
       <c r="F83" s="23"/>
       <c r="G83" s="20"/>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="24"/>
       <c r="B84" s="11" t="s">
         <v>97</v>
@@ -3336,7 +3335,7 @@
       <c r="F84" s="23"/>
       <c r="G84" s="20"/>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
       <c r="B85" s="11" t="s">
         <v>98</v>
@@ -3353,7 +3352,7 @@
       <c r="F85" s="23"/>
       <c r="G85" s="20"/>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
       <c r="B86" s="11" t="s">
         <v>244</v>
@@ -3389,7 +3388,7 @@
       </c>
       <c r="G87" s="20"/>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="24"/>
       <c r="B88" s="11" t="s">
         <v>247</v>
@@ -3406,7 +3405,7 @@
       <c r="F88" s="23"/>
       <c r="G88" s="20"/>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="11" t="s">
         <v>249</v>
@@ -3423,7 +3422,7 @@
       <c r="F89" s="23"/>
       <c r="G89" s="20"/>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="24"/>
       <c r="B90" s="11" t="s">
         <v>250</v>
@@ -3440,7 +3439,7 @@
       <c r="F90" s="23"/>
       <c r="G90" s="20"/>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="24"/>
       <c r="B91" s="11" t="s">
         <v>251</v>
@@ -3457,7 +3456,7 @@
       <c r="F91" s="23"/>
       <c r="G91" s="20"/>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="24"/>
       <c r="B92" s="11" t="s">
         <v>252</v>
@@ -3474,7 +3473,7 @@
       <c r="F92" s="23"/>
       <c r="G92" s="20"/>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="24"/>
       <c r="B93" s="11" t="s">
         <v>253</v>
@@ -3491,7 +3490,7 @@
       <c r="F93" s="23"/>
       <c r="G93" s="20"/>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="24"/>
       <c r="B94" s="11" t="s">
         <v>254</v>
@@ -3508,7 +3507,7 @@
       <c r="F94" s="23"/>
       <c r="G94" s="20"/>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="24"/>
       <c r="B95" s="11" t="s">
         <v>106</v>
@@ -3601,7 +3600,7 @@
       </c>
       <c r="G99" s="20"/>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="24"/>
       <c r="B100" s="11" t="s">
         <v>259</v>
@@ -3618,7 +3617,7 @@
       <c r="F100" s="23"/>
       <c r="G100" s="20"/>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="24"/>
       <c r="B101" s="12" t="s">
         <v>261</v>
@@ -3636,13 +3635,7 @@
       <c r="G101" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G101" xr:uid="{BE5FE986-2386-41CA-B934-CA2FE1CDA302}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G101" xr:uid="{BE5FE986-2386-41CA-B934-CA2FE1CDA302}"/>
   <mergeCells count="5">
     <mergeCell ref="G33:G37"/>
     <mergeCell ref="A19:A24"/>
